--- a/.5 sem 21 fall/._электрические машины/_курсовой/vmoya.xlsx
+++ b/.5 sem 21 fall/._электрические машины/_курсовой/vmoya.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54A621-3AEB-4724-AF08-01417E464E9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2534D4-218F-43AB-BF2F-3D3B8E1300FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -725,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,6 +745,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,22 +852,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3645108565445076</c:v>
+                  <c:v>18.074659468774684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64279468993689026</c:v>
+                  <c:v>26.525784817433269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91274665143262834</c:v>
+                  <c:v>34.816213074813682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.173276853368064</c:v>
+                  <c:v>42.91842584629061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4235083807721174</c:v>
+                  <c:v>50.807719211751937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5684162628558247</c:v>
+                  <c:v>58.462346291349128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,22 +879,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.40943560270827</c:v>
+                  <c:v>34.705932684111488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.653875580926264</c:v>
+                  <c:v>46.301496407797501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9686036812735357</c:v>
+                  <c:v>58.498956947522828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3180254510808771</c:v>
+                  <c:v>70.869522734608793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.682180526754939</c:v>
+                  <c:v>83.22429736841859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9029356790686522</c:v>
+                  <c:v>95.46472207312739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,22 +1184,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3645108565445076</c:v>
+                  <c:v>18.074659468774684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64279468993689026</c:v>
+                  <c:v>26.525784817433269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91274665143262834</c:v>
+                  <c:v>34.816213074813682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.173276853368064</c:v>
+                  <c:v>42.91842584629061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4235083807721174</c:v>
+                  <c:v>50.807719211751937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5684162628558247</c:v>
+                  <c:v>58.462346291349128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,22 +1211,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.63544802149332291</c:v>
+                  <c:v>0.81244514047450633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76967314996465985</c:v>
+                  <c:v>0.86082219571599816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81210011259315673</c:v>
+                  <c:v>0.88212644645534621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82737796322189627</c:v>
+                  <c:v>0.89233450151572402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83111676329728645</c:v>
+                  <c:v>0.89693451674480451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83033312429582606</c:v>
+                  <c:v>0.89831947209015794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,22 +1493,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3645108565445076</c:v>
+                  <c:v>18.074659468774684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64279468993689026</c:v>
+                  <c:v>26.525784817433269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91274665143262834</c:v>
+                  <c:v>34.816213074813682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.173276853368064</c:v>
+                  <c:v>42.91842584629061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4235083807721174</c:v>
+                  <c:v>50.807719211751937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5684162628558247</c:v>
+                  <c:v>58.462346291349128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,22 +1520,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.39185130240881394</c:v>
+                  <c:v>0.78908260236726013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5888782443016487</c:v>
+                  <c:v>0.86801909602966298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70250273583403866</c:v>
+                  <c:v>0.90175689866510955</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76689934583932218</c:v>
+                  <c:v>0.91757239839812121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80413337523079231</c:v>
+                  <c:v>0.92498699513552263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81861554638947276</c:v>
+                  <c:v>0.92787482788455744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,22 +1833,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3645108565445076</c:v>
+                  <c:v>18.074659468774684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64279468993689026</c:v>
+                  <c:v>26.525784817433269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91274665143262834</c:v>
+                  <c:v>34.816213074813682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.173276853368064</c:v>
+                  <c:v>42.91842584629061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4235083807721174</c:v>
+                  <c:v>50.807719211751937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5684162628558247</c:v>
+                  <c:v>58.462346291349128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,19 +1863,19 @@
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>1.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>1.7500000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4761,63 +4763,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F2" s="1">
+        <f>E2+0.0025</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" ref="G2:K2" si="0">F2+0.0025</f>
         <v>0.01</v>
       </c>
-      <c r="G2" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>4.3999999999999997E-2</v>
+      <c r="H2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000001E-2</v>
+      </c>
+      <c r="J2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="K2" s="7">
+        <f>J2+0.0015</f>
+        <v>1.9000000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -4828,31 +4836,31 @@
       </c>
       <c r="E3" s="1">
         <f>P3*P4/E2</f>
-        <v>503.57840000000004</v>
+        <v>8.3279999999999994</v>
       </c>
       <c r="F3" s="1">
         <f>P3*P4/F2</f>
-        <v>251.78920000000002</v>
+        <v>5.5519999999999996</v>
       </c>
       <c r="G3" s="1">
         <f>P3*P4/G2</f>
-        <v>167.85946666666669</v>
+        <v>4.1639999999999997</v>
       </c>
       <c r="H3" s="1">
         <f>P3*P4/H2</f>
-        <v>125.89460000000001</v>
+        <v>3.3311999999999995</v>
       </c>
       <c r="I3" s="1">
         <f>P3*P4/I2</f>
-        <v>100.71568000000001</v>
+        <v>2.7759999999999994</v>
       </c>
       <c r="J3" s="1">
         <f>P3*P4/J2</f>
-        <v>89.924714285714288</v>
+        <v>2.379428571428571</v>
       </c>
       <c r="K3" s="5">
         <f>P3*P4/K2</f>
-        <v>57.224818181818193</v>
+        <v>2.1915789473684204</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4861,11 +4869,11 @@
         <v>4</v>
       </c>
       <c r="P3" s="6">
-        <v>1.0660000000000001</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -4902,11 +4910,11 @@
         <v>5</v>
       </c>
       <c r="P4" s="6">
-        <v>2.3620000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -4917,31 +4925,31 @@
       </c>
       <c r="E5" s="1">
         <f>P6+E3</f>
-        <v>508.40640000000002</v>
+        <v>8.3889999999999993</v>
       </c>
       <c r="F5" s="1">
         <f>P6+F3</f>
-        <v>256.61720000000003</v>
+        <v>5.6129999999999995</v>
       </c>
       <c r="G5" s="1">
         <f>P6+G3</f>
-        <v>172.68746666666669</v>
+        <v>4.2249999999999996</v>
       </c>
       <c r="H5" s="1">
         <f>P6+H3</f>
-        <v>130.7226</v>
+        <v>3.3921999999999994</v>
       </c>
       <c r="I5" s="1">
         <f>P6+I3</f>
-        <v>105.54368000000001</v>
+        <v>2.8369999999999993</v>
       </c>
       <c r="J5" s="1">
         <f>P6+J3</f>
-        <v>94.752714285714291</v>
+        <v>2.4404285714285709</v>
       </c>
       <c r="K5" s="5">
         <f>P6+K3</f>
-        <v>62.052818181818196</v>
+        <v>2.2525789473684203</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -4954,7 +4962,7 @@
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -4965,31 +4973,31 @@
       </c>
       <c r="E6" s="1">
         <f>P7+E4</f>
-        <v>16.137</v>
+        <v>0.437</v>
       </c>
       <c r="F6" s="1">
         <f>P7+F4</f>
-        <v>16.137</v>
+        <v>0.437</v>
       </c>
       <c r="G6" s="1">
         <f>P7+G4</f>
-        <v>16.137</v>
+        <v>0.437</v>
       </c>
       <c r="H6" s="1">
         <f>P7+H4</f>
-        <v>16.137</v>
+        <v>0.437</v>
       </c>
       <c r="I6" s="1">
         <f>P7+I4</f>
-        <v>16.137</v>
+        <v>0.437</v>
       </c>
       <c r="J6" s="1">
         <f>P7+J4</f>
-        <v>16.137</v>
+        <v>0.437</v>
       </c>
       <c r="K6" s="5">
         <f>P7+K4</f>
-        <v>16.137</v>
+        <v>0.437</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -4998,11 +5006,11 @@
         <v>7</v>
       </c>
       <c r="P6" s="6">
-        <v>4.8280000000000003</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -5013,31 +5021,31 @@
       </c>
       <c r="E7" s="1">
         <f>SQRT(E5^2+E6^2)</f>
-        <v>508.66243259155675</v>
+        <v>8.4003743964182913</v>
       </c>
       <c r="F7" s="1">
         <f>SQRT(F5^2+F6^2)</f>
-        <v>257.12407531158959</v>
+        <v>5.6299856127702483</v>
       </c>
       <c r="G7" s="1">
         <f>SQRT(G5^2+G6^2)</f>
-        <v>173.43979910260251</v>
+        <v>4.2475397584954981</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:K7" si="0">SQRT(H5^2+H6^2)</f>
-        <v>131.71484699820292</v>
+        <f t="shared" ref="H7:K7" si="1">SQRT(H5^2+H6^2)</f>
+        <v>3.4202324248506848</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>106.77017915570995</v>
+        <f t="shared" si="1"/>
+        <v>2.8704595450902972</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="0"/>
-        <v>96.117010115328725</v>
+        <f t="shared" si="1"/>
+        <v>2.4792459765511157</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="0"/>
-        <v>64.116729589911145</v>
+        <f t="shared" si="1"/>
+        <v>2.294576412788953</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -5046,11 +5054,11 @@
         <v>8</v>
       </c>
       <c r="P7" s="6">
-        <v>16.137</v>
+        <v>0.437</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -5061,31 +5069,31 @@
       </c>
       <c r="E8" s="1">
         <f>P8/E7</f>
-        <v>0.43250687667090704</v>
+        <v>26.189308906731881</v>
       </c>
       <c r="F8" s="1">
         <f>P8/F7</f>
-        <v>0.85561805028719429</v>
+        <v>39.076476412476737</v>
       </c>
       <c r="G8" s="1">
         <f>P8/G7</f>
-        <v>1.2684516537628925</v>
+        <v>51.794688810146702</v>
       </c>
       <c r="H8" s="1">
         <f>P8/H7</f>
-        <v>1.6702748779945942</v>
+        <v>64.323113950246935</v>
       </c>
       <c r="I8" s="1">
         <f>P8/I7</f>
-        <v>2.0605004294238336</v>
+        <v>76.642780204407785</v>
       </c>
       <c r="J8" s="1">
         <f>P8/J7</f>
-        <v>2.2888768568230198</v>
+        <v>88.736657064597708</v>
       </c>
       <c r="K8" s="5">
         <f>P8/K7</f>
-        <v>3.4312417586972073</v>
+        <v>95.878262660514338</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -5098,7 +5106,7 @@
       </c>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -5109,31 +5117,31 @@
       </c>
       <c r="E9" s="1">
         <f>E5/E7</f>
-        <v>0.99949665519772657</v>
+        <v>0.99864596553897145</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:K9" si="1">F5/F7</f>
-        <v>0.99802867424617736</v>
+        <f t="shared" ref="F9:K9" si="2">F5/F7</f>
+        <v>0.99698300956014507</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99566228489753528</v>
+        <f t="shared" si="2"/>
+        <v>0.99469345555849908</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99246670348243693</v>
+        <f t="shared" si="2"/>
+        <v>0.99180394155467111</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.98851271801350771</v>
+        <f t="shared" si="2"/>
+        <v>0.98834348836320374</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.98580588568061522</v>
+        <f t="shared" si="2"/>
+        <v>0.98434306015228723</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.96781009541045415</v>
+        <f t="shared" si="2"/>
+        <v>0.98169707263333772</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -5142,11 +5150,11 @@
         <v>15</v>
       </c>
       <c r="P9" s="6">
-        <v>1.032</v>
+        <v>1.02</v>
       </c>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -5157,31 +5165,31 @@
       </c>
       <c r="E10" s="1">
         <f>E6/E7</f>
-        <v>3.172437940381103E-2</v>
+        <v>5.2021490873826508E-2</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:K10" si="2">F6/F7</f>
-        <v>6.2759583988565709E-2</v>
+        <f t="shared" ref="F10:K10" si="3">F6/F7</f>
+        <v>7.7620091782965153E-2</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>9.3040928803508172E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.10288308640924594</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12251466230090348</v>
+        <f t="shared" si="3"/>
+        <v>0.12776909452844507</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15113770649823818</v>
+        <f t="shared" si="3"/>
+        <v>0.15224043158784636</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1678891174479685</v>
+        <f t="shared" si="3"/>
+        <v>0.17626326880558726</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="2"/>
-        <v>0.25168158300044019</v>
+        <f t="shared" si="3"/>
+        <v>0.1904490944665671</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -5190,11 +5198,11 @@
         <v>16</v>
       </c>
       <c r="P10" s="6">
-        <v>4.6760000000000002</v>
+        <v>0.06</v>
       </c>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
@@ -5205,31 +5213,31 @@
       </c>
       <c r="E11" s="1">
         <f>$P12+E8*E9</f>
-        <v>0.55228917658258725</v>
+        <v>27.385847679961643</v>
       </c>
       <c r="F11" s="1">
         <f>$P12+F8*F9</f>
-        <v>0.97393134838922757</v>
+        <v>40.190583056717074</v>
       </c>
       <c r="G11" s="1">
         <f>$P12+G8*G9</f>
-        <v>1.3829494718676187</v>
+        <v>52.751837992141951</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:K11" si="3">$P12+H8*H9</f>
-        <v>1.7776922020728243</v>
+        <f t="shared" ref="H11:K11" si="4">$P12+H8*H9</f>
+        <v>65.027917948925165</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1568308799577536</v>
+        <f t="shared" si="4"/>
+        <v>76.981392745078693</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3763882770542799</v>
+        <f t="shared" si="4"/>
+        <v>88.579312562650188</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="3"/>
-        <v>3.440790413861079</v>
+        <f t="shared" si="4"/>
+        <v>95.355409782997171</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -5238,13 +5246,13 @@
         <v>20</v>
       </c>
       <c r="P11" s="1">
-        <v>0.10213899999999999</v>
+        <v>3.052</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -5255,31 +5263,31 @@
       </c>
       <c r="E12" s="1">
         <f>$P13+E8*E10</f>
-        <v>1.296721012250265</v>
+        <v>21.319406894283375</v>
       </c>
       <c r="F12" s="1">
         <f>$P13+F8*F10</f>
-        <v>1.3366982328891319</v>
+        <v>22.990119685691319</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:K12" si="4">$P13+G8*G10</f>
-        <v>1.4010179200084454</v>
+        <f t="shared" ref="G12:K12" si="5">$P13+G8*G10</f>
+        <v>25.285797444394326</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4876331626271904</v>
+        <f t="shared" si="5"/>
+        <v>28.175506026673045</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5944193091417529</v>
+        <f t="shared" si="5"/>
+        <v>31.62512993641149</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6672775154390969</v>
+        <f t="shared" si="5"/>
+        <v>35.598013237086398</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="4"/>
-        <v>2.1465803574861275</v>
+        <f t="shared" si="5"/>
+        <v>38.216928302722629</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -5288,11 +5296,11 @@
         <v>30</v>
       </c>
       <c r="P12" s="1">
-        <v>0.12</v>
+        <v>1.232</v>
       </c>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -5302,32 +5310,32 @@
         <v>17</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:K13" si="5">SQRT(E11^2+E12^2)</f>
-        <v>1.40943560270827</v>
+        <f t="shared" ref="E13:K13" si="6">SQRT(E11^2+E12^2)</f>
+        <v>34.705932684111488</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="5"/>
-        <v>1.653875580926264</v>
+        <f t="shared" si="6"/>
+        <v>46.301496407797501</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="5"/>
-        <v>1.9686036812735357</v>
+        <f t="shared" si="6"/>
+        <v>58.498956947522828</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="5"/>
-        <v>2.3180254510808771</v>
+        <f t="shared" si="6"/>
+        <v>70.869522734608793</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="5"/>
-        <v>2.682180526754939</v>
+        <f t="shared" si="6"/>
+        <v>83.22429736841859</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="5"/>
-        <v>2.9029356790686522</v>
+        <f t="shared" si="6"/>
+        <v>95.46472207312739</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="5"/>
-        <v>4.0554711074378975</v>
+        <f t="shared" si="6"/>
+        <v>102.72870963746578</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>43</v>
@@ -5338,11 +5346,11 @@
         <v>31</v>
       </c>
       <c r="P13" s="1">
-        <v>1.2829999999999999</v>
+        <v>19.957000000000001</v>
       </c>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
@@ -5353,31 +5361,31 @@
       </c>
       <c r="E14" s="3">
         <f>$P9*E8</f>
-        <v>0.44634709672437606</v>
+        <v>26.71309508486652</v>
       </c>
       <c r="F14" s="3">
         <f>$P9*F8</f>
-        <v>0.88299782789638448</v>
+        <v>39.858005940726272</v>
       </c>
       <c r="G14" s="3">
         <f>$P9*G8</f>
-        <v>1.3090421066833051</v>
+        <v>52.830582586349635</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ref="H14:K14" si="6">$P9*H8</f>
-        <v>1.7237236740904212</v>
+        <f t="shared" ref="H14:K14" si="7">$P9*H8</f>
+        <v>65.609576229251871</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="6"/>
-        <v>2.1264364431653964</v>
+        <f t="shared" si="7"/>
+        <v>78.17563580849594</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="6"/>
-        <v>2.3621209162413566</v>
+        <f t="shared" si="7"/>
+        <v>90.511390205889668</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="6"/>
-        <v>3.5410414949755178</v>
+        <f t="shared" si="7"/>
+        <v>97.795827913724622</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -5386,13 +5394,13 @@
         <v>37</v>
       </c>
       <c r="P14" s="1">
-        <v>1.2222E-2</v>
+        <v>0.30555599999999999</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
@@ -5403,31 +5411,31 @@
       </c>
       <c r="E15" s="3">
         <f>3*$P8*E11*10^(-3)</f>
-        <v>0.3645108565445076</v>
+        <v>18.074659468774684</v>
       </c>
       <c r="F15" s="3">
         <f>3*$P8*F11*10^(-3)</f>
-        <v>0.64279468993689026</v>
+        <v>26.525784817433269</v>
       </c>
       <c r="G15" s="3">
         <f>3*$P8*G11*10^(-3)</f>
-        <v>0.91274665143262834</v>
+        <v>34.816213074813682</v>
       </c>
       <c r="H15" s="3">
         <f>3*$P8*H11*10^(-3)</f>
-        <v>1.173276853368064</v>
+        <v>42.91842584629061</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" ref="I15:K15" si="7">3*$P8*I11*10^(-3)</f>
-        <v>1.4235083807721174</v>
+        <f t="shared" ref="I15:K15" si="8">3*$P8*I11*10^(-3)</f>
+        <v>50.807719211751937</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="7"/>
-        <v>1.5684162628558247</v>
+        <f t="shared" si="8"/>
+        <v>58.462346291349128</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="7"/>
-        <v>2.2709216731483122</v>
+        <f t="shared" si="8"/>
+        <v>62.93457045677814</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>40</v>
@@ -5438,11 +5446,11 @@
         <v>39</v>
       </c>
       <c r="P15" s="1">
-        <v>4.07</v>
+        <v>101.75</v>
       </c>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -5453,31 +5461,31 @@
       </c>
       <c r="E16" s="3">
         <f>3*E13^2*$P10*10^(-3)</f>
-        <v>2.7866744298651824E-2</v>
+        <v>0.21681031742533405</v>
       </c>
       <c r="F16" s="3">
         <f>3*F13^2*$P10*10^(-3)</f>
-        <v>3.8370850644819786E-2</v>
+        <v>0.38588914252823131</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" ref="G16:I16" si="8">3*G13^2*$P10*10^(-3)</f>
-        <v>5.4364117567641895E-2</v>
+        <f t="shared" ref="G16:I16" si="9">3*G13^2*$P10*10^(-3)</f>
+        <v>0.6159830335106633</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="8"/>
-        <v>7.5375838661793898E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.90404806547362182</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="8"/>
-        <v>0.10091872788003453</v>
+        <f t="shared" si="9"/>
+        <v>1.2467310610440536</v>
       </c>
       <c r="J16" s="3">
         <f>3*J13^2*$P10*10^(-3)</f>
-        <v>0.11821445479092757</v>
+        <v>1.6404323688899021</v>
       </c>
       <c r="K16" s="3">
         <f>3*K13^2*$P10*10^(-3)</f>
-        <v>0.23071635433098137</v>
+        <v>1.8995738010801761</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -5486,7 +5494,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -5497,31 +5505,31 @@
       </c>
       <c r="E17" s="3">
         <f>3*E14^2*$P4*10^(-3)</f>
-        <v>1.4117135281248249E-3</v>
+        <v>8.5630733881574383E-2</v>
       </c>
       <c r="F17" s="3">
         <f>3*F14^2*$P4*10^(-3)</f>
-        <v>5.5248490725981281E-3</v>
+        <v>0.1906392765085165</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" ref="G17:K17" si="9">3*G14^2*$P4*10^(-3)</f>
-        <v>1.2142507505877068E-2</v>
+        <f t="shared" ref="G17:K17" si="10">3*G14^2*$P4*10^(-3)</f>
+        <v>0.33492845476957317</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="9"/>
-        <v>2.1054088336535763E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.51655397915784163</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="9"/>
-        <v>3.2040992575179998E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.73337160408751112</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="9"/>
-        <v>3.9537153469787603E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.98307741084033851</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8851175922715062E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.147682874879701</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -5530,7 +5538,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
@@ -5541,31 +5549,31 @@
       </c>
       <c r="E18" s="3">
         <f>$P14*(E13/$P15)^2</f>
-        <v>1.4656961136871223E-3</v>
+        <v>3.5549166330260763E-2</v>
       </c>
       <c r="F18" s="3">
         <f>$P14*(F13/$P15)^2</f>
-        <v>2.0181764351891725E-3</v>
+        <v>6.3272068763526756E-2</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" ref="G18:K18" si="10">$P14*(G13/$P15)^2</f>
-        <v>2.8593679616451448E-3</v>
+        <f t="shared" ref="G18:K18" si="11">$P14*(G13/$P15)^2</f>
+        <v>0.10099926781588874</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="10"/>
-        <v>3.9645131346701208E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.1482316682698466</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="10"/>
-        <v>5.3079823630193829E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.20441946852192924</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="10"/>
-        <v>6.2176788616489743E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.26897245402213804</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="10"/>
-        <v>1.2134896717136072E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.31146241476474251</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -5574,7 +5582,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
@@ -5585,31 +5593,31 @@
       </c>
       <c r="E19" s="3">
         <f>$P11+E16+E17+E18</f>
-        <v>0.13288315394046377</v>
+        <v>3.3899902176371692</v>
       </c>
       <c r="F19" s="3">
         <f>$P11+F16+F17+F18</f>
-        <v>0.14805287615260707</v>
+        <v>3.6918004878002746</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" ref="G19:K19" si="11">$P11+G16+G17+G18</f>
-        <v>0.17150499303516412</v>
+        <f t="shared" ref="G19:K19" si="12">$P11+G16+G17+G18</f>
+        <v>4.1039107560961243</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="11"/>
-        <v>0.20253344013299979</v>
+        <f t="shared" si="12"/>
+        <v>4.6208337129013106</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="11"/>
-        <v>0.2404067028182339</v>
+        <f t="shared" si="12"/>
+        <v>5.2365221336534935</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="11"/>
-        <v>0.26610828712236412</v>
+        <f t="shared" si="12"/>
+        <v>5.9444822337523782</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="11"/>
-        <v>0.4338414269708325</v>
+        <f t="shared" si="12"/>
+        <v>6.4107190907246192</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -5618,7 +5626,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
@@ -5629,31 +5637,31 @@
       </c>
       <c r="E20" s="3">
         <f>E15-E19</f>
-        <v>0.23162770260404383</v>
+        <v>14.684669251137514</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ref="F20:K20" si="12">F15-F19</f>
-        <v>0.49474181378428317</v>
+        <f t="shared" ref="F20:K20" si="13">F15-F19</f>
+        <v>22.833984329632994</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="12"/>
-        <v>0.74124165839746425</v>
+        <f t="shared" si="13"/>
+        <v>30.712302318717558</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="12"/>
-        <v>0.97074341323506419</v>
+        <f t="shared" si="13"/>
+        <v>38.297592133389301</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="12"/>
-        <v>1.1831016779538834</v>
+        <f t="shared" si="13"/>
+        <v>45.571197078098443</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="12"/>
-        <v>1.3023079757334606</v>
+        <f t="shared" si="13"/>
+        <v>52.517864057596753</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="12"/>
-        <v>1.8370802461774796</v>
+        <f t="shared" si="13"/>
+        <v>56.52385136605352</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -5662,42 +5670,42 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="1">
         <f>1-E19/E15</f>
-        <v>0.63544802149332291</v>
+        <v>0.81244514047450633</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ref="F21:K21" si="13">1-F19/F15</f>
-        <v>0.76967314996465985</v>
+        <f t="shared" ref="F21:K21" si="14">1-F19/F15</f>
+        <v>0.86082219571599816</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="13"/>
-        <v>0.81210011259315673</v>
+        <f t="shared" si="14"/>
+        <v>0.88212644645534621</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="13"/>
-        <v>0.82737796322189627</v>
+        <f t="shared" si="14"/>
+        <v>0.89233450151572402</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="13"/>
-        <v>0.83111676329728645</v>
+        <f t="shared" si="14"/>
+        <v>0.89693451674480451</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="13"/>
-        <v>0.83033312429582606</v>
+        <f t="shared" si="14"/>
+        <v>0.89831947209015794</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="13"/>
-        <v>0.80895799617369779</v>
+        <f t="shared" si="14"/>
+        <v>0.89813676260605702</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>42</v>
@@ -5708,42 +5716,42 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="4">
         <f>E11/E13</f>
-        <v>0.39185130240881394</v>
+        <v>0.78908260236726013</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ref="F22:K22" si="14">F11/F13</f>
-        <v>0.5888782443016487</v>
+        <f t="shared" ref="F22:K22" si="15">F11/F13</f>
+        <v>0.86801909602966298</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="14"/>
-        <v>0.70250273583403866</v>
+        <f t="shared" si="15"/>
+        <v>0.90175689866510955</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="14"/>
-        <v>0.76689934583932218</v>
+        <f t="shared" si="15"/>
+        <v>0.91757239839812121</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="14"/>
-        <v>0.80413337523079231</v>
+        <f t="shared" si="15"/>
+        <v>0.92498699513552263</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="14"/>
-        <v>0.81861554638947276</v>
+        <f t="shared" si="15"/>
+        <v>0.92787482788455744</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="14"/>
-        <v>0.84843174139510713</v>
+        <f t="shared" si="15"/>
+        <v>0.92822551864528113</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>41</v>
@@ -5754,7 +5762,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5773,7 +5781,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5794,6 +5802,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:J1"/>
@@ -5810,13 +5825,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
